--- a/biology/Biologie cellulaire et moléculaire/Facteur_de_transcription/Facteur_de_transcription.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Facteur_de_transcription/Facteur_de_transcription.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un facteur de transcription est une protéine nécessaire à l'initiation ou à la régulation de la transcription d'un gène dans l'ensemble du vivant (procaryote ou eucaryote). Elle interagit avec l'ADN et l'ARN-polymérase.
 </t>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il existe une classification complexe des facteurs de transcription.
 Les facteurs généraux de la transcription, impliqués dans la composition de la machinerie transcriptionnelle basale organisée autour de l'ARN polymérase II.
@@ -557,7 +571,9 @@
           <t>Mécanismes d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les facteurs de transcription sont des activateurs ou des répresseurs du complexe transcriptionnel constitué autour de l'ARN polymérase qui agissent en se fixant sur les séquences régulatrices en amont des gènes à transcrire. De manière indirecte, par le recrutement de corégulateurs transcriptionnels, ils peuvent agir sur l'état de condensation de la chromatine en acétylant ou désacétylant spécifiquement certains résidus lysines des histones ce qui a, sur le mécanisme de la transcription, des effets respectivement activateur ou répresseur.
 </t>
@@ -588,7 +604,9 @@
           <t>Rôles physiologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De par leurs actions sur l'expression des gènes, les facteurs de transcription régulent à différents niveaux l'essentiel des processus cellulaires, depuis la biologie interne de la cellule, ses fonctions structurelles, de métabolisme, de réplication, de différenciation, d'interaction cellule-cellule ou cellule matrice, de sécrétion, jusqu'au processus de migration ou de transports.
 </t>
@@ -619,9 +637,11 @@
           <t>Atlas</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La revue Cell a publié en 2010 un premier Atlas des facteurs de transcription et de leurs interactions, créé par 41 chercheurs de 17 institutions internationales. Cet atlas regroupe 762 facteurs de transcription humains et 877 facteurs de transcription murins et montre que la moitié des interactions sont conservées entre les deux espèces[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La revue Cell a publié en 2010 un premier Atlas des facteurs de transcription et de leurs interactions, créé par 41 chercheurs de 17 institutions internationales. Cet atlas regroupe 762 facteurs de transcription humains et 877 facteurs de transcription murins et montre que la moitié des interactions sont conservées entre les deux espèces.
 </t>
         </is>
       </c>
